--- a/data/sheets/Coal.xlsx
+++ b/data/sheets/Coal.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28aa9e46087b5738/0-Concordia_Capital/excel_to_https/excel_web_refresh/export/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{825D57E8-F6DE-4900-A2DD-AC076F66262E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6C0FC26-16CE-46CD-AF81-2A3C4564FDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E985F99-C649-459C-BE10-DBAE90EBF5D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DAB4B862-CA88-43F1-A48E-FC8578163699}"/>
   </bookViews>
   <sheets>
-    <sheet name="Coal" sheetId="2" r:id="rId1"/>
+    <sheet name="Coal" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -48,7 +48,6 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" localSheetId="0" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
@@ -557,14 +556,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -901,390 +893,388 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{A7C9A432-9594-4264-A233-27935BBCC7CB}"/>
-    <cellStyle name="百分比 2" xfId="2" xr:uid="{BE69E075-0876-4FF2-9241-307BA2204A9E}"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1762,7 +1752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C524B2D5-1625-4D84-9987-655E0F226CD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5949E185-282D-4C10-83C0-CE516FA5A83C}">
   <dimension ref="A1:AZ27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1773,7 +1763,7 @@
       <selection pane="bottomRight" activeCell="I2678" sqref="I2678"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="2" max="7" width="12.77734375" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -1814,7 +1804,7 @@
     <col min="51" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1922,7 +1912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2048,7 +2038,7 @@
       <c r="AY2" s="28"/>
       <c r="AZ2" s="29"/>
     </row>
-    <row r="3" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>45</v>
       </c>
@@ -2123,7 +2113,7 @@
       <c r="AY3" s="39"/>
       <c r="AZ3" s="33"/>
     </row>
-    <row r="4" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="L4" s="13"/>
       <c r="M4" s="30"/>
       <c r="N4" s="32"/>
@@ -2165,7 +2155,7 @@
       <c r="AY4" s="39"/>
       <c r="AZ4" s="33"/>
     </row>
-    <row r="5" spans="1:52" ht="16.8" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" ht="16.8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="J5" s="45" t="s">
         <v>69</v>
       </c>
@@ -2211,7 +2201,7 @@
       <c r="AY5" s="39"/>
       <c r="AZ5" s="33"/>
     </row>
-    <row r="6" spans="1:52" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L6, A$3)</f>
         <v>#NAME?</v>
@@ -2403,7 +2393,7 @@
       </c>
       <c r="AZ6" s="39"/>
     </row>
-    <row r="7" spans="1:52" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L7, A$3)</f>
         <v>#NAME?</v>
@@ -2595,7 +2585,7 @@
       </c>
       <c r="AZ7" s="39"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="E8" s="85"/>
       <c r="F8" s="85"/>
       <c r="G8" s="85"/>
@@ -2734,7 +2724,7 @@
       <c r="AY8" s="39"/>
       <c r="AZ8" s="39"/>
     </row>
-    <row r="9" spans="1:52" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" ht="16.8" x14ac:dyDescent="0.25">
       <c r="E9" s="85"/>
       <c r="F9" s="85"/>
       <c r="G9" s="85"/>
@@ -2783,7 +2773,7 @@
       <c r="AY9" s="39"/>
       <c r="AZ9" s="39"/>
     </row>
-    <row r="10" spans="1:52" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L10, A$3)</f>
         <v>#NAME?</v>
@@ -2975,7 +2965,7 @@
       </c>
       <c r="AZ10" s="39"/>
     </row>
-    <row r="11" spans="1:52" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L11, A$3)</f>
         <v>#NAME?</v>
@@ -3167,7 +3157,7 @@
       </c>
       <c r="AZ11" s="39"/>
     </row>
-    <row r="12" spans="1:52" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L12, A$3)</f>
         <v>#NAME?</v>
@@ -3359,7 +3349,7 @@
       </c>
       <c r="AZ12" s="39"/>
     </row>
-    <row r="13" spans="1:52" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L13, A$3)</f>
         <v>#NAME?</v>
@@ -3551,7 +3541,7 @@
       </c>
       <c r="AZ13" s="39"/>
     </row>
-    <row r="14" spans="1:52" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L14, A$3)</f>
         <v>#NAME?</v>
@@ -3743,7 +3733,7 @@
       </c>
       <c r="AZ14" s="39"/>
     </row>
-    <row r="15" spans="1:52" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L15, A$3)</f>
         <v>#NAME?</v>
@@ -3935,7 +3925,7 @@
       </c>
       <c r="AZ15" s="39"/>
     </row>
-    <row r="16" spans="1:52" ht="14.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" ht="13.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L16, A$3)</f>
         <v>#NAME?</v>
@@ -4127,7 +4117,7 @@
       </c>
       <c r="AZ16" s="39"/>
     </row>
-    <row r="17" spans="1:52" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:52" collapsed="1" x14ac:dyDescent="0.25">
       <c r="E17" s="85"/>
       <c r="F17" s="85"/>
       <c r="G17" s="85"/>
@@ -4265,7 +4255,7 @@
       <c r="AY17" s="39"/>
       <c r="AZ17" s="39"/>
     </row>
-    <row r="18" spans="1:52" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:52" ht="16.8" x14ac:dyDescent="0.25">
       <c r="E18" s="85"/>
       <c r="F18" s="85"/>
       <c r="G18" s="85"/>
@@ -4314,7 +4304,7 @@
       <c r="AY18" s="39"/>
       <c r="AZ18" s="39"/>
     </row>
-    <row r="19" spans="1:52" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L19, A$3)</f>
         <v>#NAME?</v>
@@ -4506,7 +4496,7 @@
       </c>
       <c r="AZ19" s="39"/>
     </row>
-    <row r="20" spans="1:52" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L20, A$3)</f>
         <v>#NAME?</v>
@@ -4698,7 +4688,7 @@
       </c>
       <c r="AZ20" s="39"/>
     </row>
-    <row r="21" spans="1:52" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L21, A$3)</f>
         <v>#NAME?</v>
@@ -4890,7 +4880,7 @@
       </c>
       <c r="AZ21" s="39"/>
     </row>
-    <row r="22" spans="1:52" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L22, A$3)</f>
         <v>#NAME?</v>
@@ -5082,7 +5072,7 @@
       </c>
       <c r="AZ22" s="39"/>
     </row>
-    <row r="23" spans="1:52" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L23, A$3)</f>
         <v>#NAME?</v>
@@ -5274,7 +5264,7 @@
       </c>
       <c r="AZ23" s="39"/>
     </row>
-    <row r="24" spans="1:52" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L24, A$3)</f>
         <v>#NAME?</v>
@@ -5466,7 +5456,7 @@
       </c>
       <c r="AZ24" s="39"/>
     </row>
-    <row r="25" spans="1:52" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L25, A$3)</f>
         <v>#NAME?</v>
@@ -5658,7 +5648,7 @@
       </c>
       <c r="AZ25" s="115"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="H26" s="116"/>
       <c r="I26" s="116"/>
       <c r="J26" s="86"/>
@@ -5791,7 +5781,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:52" s="118" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:52" s="118" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J27" s="119"/>
       <c r="K27" s="119"/>
       <c r="L27" s="119"/>
